--- a/data/trans_dic/P19F$tarde-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,87; 35,7</t>
+          <t>22,37; 36,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,92; 43,02</t>
+          <t>27,06; 42,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,98; 36,46</t>
+          <t>25,87; 36,59</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 44,17</t>
+          <t>29,32; 43,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,19; 46,79</t>
+          <t>31,6; 46,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,95; 42,8</t>
+          <t>32,76; 43,39</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,25; 36,3</t>
+          <t>25,29; 36,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,87; 34,31</t>
+          <t>16,06; 35,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 34,75</t>
+          <t>23,94; 34,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 33,96</t>
+          <t>26,79; 34,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,0; 36,85</t>
+          <t>28,49; 37,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,59; 34,36</t>
+          <t>28,49; 34,17</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,77; 33,72</t>
+          <t>24,0; 33,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,04; 35,71</t>
+          <t>26,01; 34,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,23; 33,33</t>
+          <t>26,37; 32,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,8; 39,7</t>
+          <t>24,9; 40,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,34; 35,45</t>
+          <t>27,31; 35,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,71; 35,15</t>
+          <t>27,82; 35,06</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,54; 33,09</t>
+          <t>28,56; 32,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,69; 34,4</t>
+          <t>29,96; 34,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,9; 33,13</t>
+          <t>29,78; 32,97</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se cepilla los dientes por la tarde</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>57556</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44820</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102376</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44684; 71921</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34869; 55371</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>85003; 120244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>65555</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69430</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>134985</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52539; 78613</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>56711; 83333</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>117491; 155618</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86519</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17979</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>104498</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71346; 102685</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11973; 26106</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>85368; 123157</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>189360</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137270</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>326630</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>166801; 212494</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>120413; 157300</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>297839; 357238</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>96888</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>124108</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>220996</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>80890; 114134</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105285; 141227</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>195604; 243427</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>50574</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>163746</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>214320</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39081; 63345</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>144114; 186128</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>190474; 240041</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>546452</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>557351</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1103803</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>507738; 585875</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>520730; 595212</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1047161; 1159030</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19F$tarde-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
